--- a/perf.xlsx
+++ b/perf.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/750749e49dfd98cf/Studium in der Schweiz/20FS/Advanced Systems Lab/SPH Simulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/750749e49dfd98cf/Studium in der Schweiz/20FS/Advanced Systems Lab/SPH Simulator/team030/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="11_AD4DB114E441178AC67DF4824651ECD0683EDF1B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1AE81870-DB14-47A1-8653-0CF636AA745C}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="11_AD4DB114E441178AC67DF4824651ECD0683EDF1B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43F254A9-B8E0-4D5A-8B40-A80276BABBD7}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12186" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="-O3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -560,7 +560,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$6:$A$14</c:f>
+              <c:f>'-O3'!$A$6:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -595,7 +595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$6:$K$14</c:f>
+              <c:f>'-O3'!$K$6:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -841,7 +841,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$1:$K$1</c:f>
+              <c:f>'-O3'!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -880,7 +880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$15:$K$15</c:f>
+              <c:f>'-O3'!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -971,7 +971,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$1:$K$1</c15:sqref>
+                          <c15:sqref>'-O3'!$B$1:$K$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1016,7 +1016,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$1:$K$1</c15:sqref>
+                          <c15:sqref>'-O3'!$B$1:$K$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1444,7 +1444,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$K$4</c:f>
+              <c:f>'-O3'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1483,7 +1483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$15:$K$15</c:f>
+              <c:f>'-O3'!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1574,7 +1574,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$4:$K$4</c15:sqref>
+                          <c15:sqref>'-O3'!$B$4:$K$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1619,7 +1619,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$4:$K$4</c15:sqref>
+                          <c15:sqref>'-O3'!$B$4:$K$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2059,7 +2059,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$K$4</c:f>
+              <c:f>'-O3'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2098,7 +2098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$21:$K$21</c:f>
+              <c:f>'-O3'!$B$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2189,7 +2189,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$4:$K$4</c15:sqref>
+                          <c15:sqref>'-O3'!$B$4:$K$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2234,7 +2234,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$4:$K$4</c15:sqref>
+                          <c15:sqref>'-O3'!$B$4:$K$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2665,7 +2665,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$K$4</c:f>
+              <c:f>'-O3'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2704,7 +2704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$22:$K$22</c:f>
+              <c:f>'-O3'!$B$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2795,7 +2795,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$4:$K$4</c15:sqref>
+                          <c15:sqref>'-O3'!$B$4:$K$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2840,7 +2840,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$B$4:$K$4</c15:sqref>
+                          <c15:sqref>'-O3'!$B$4:$K$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6343,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6463,7 +6463,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:K4" si="0">B1+B2</f>
+        <f t="shared" ref="B4:C4" si="0">B1+B2</f>
         <v>893</v>
       </c>
       <c r="C4">
@@ -6471,35 +6471,35 @@
         <v>1511</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:K4" si="1">D1+D2</f>
         <v>2057</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2573</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3110</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4036</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4535</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5081</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5488</v>
       </c>
     </row>
@@ -6827,39 +6827,39 @@
         <v>8908287</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:K15" si="1">SUM(C6:C14)</f>
+        <f t="shared" ref="C15" si="2">SUM(C6:C14)</f>
         <v>22794270</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D15:K15" si="3">SUM(D6:D14)</f>
         <v>40836714</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65595997</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97772756</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>131197095</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>165746127</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>205987503</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>257343538</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>300372212</v>
       </c>
     </row>
@@ -6907,39 +6907,39 @@
         <v>6349582</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:K18" si="2">7*C4*C4+620*C4+516*C1+19*C2</f>
+        <f t="shared" ref="C18" si="4">7*C4*C4+620*C4+516*C1+19*C2</f>
         <v>17352928</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D18:K18" si="5">7*D4*D4+620*D4+516*D1+19*D2</f>
         <v>31538512</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48785626</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>70698415</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94216679</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>117975299</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>148435936</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>185769778</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>216301463</v>
       </c>
     </row>
@@ -6952,39 +6952,39 @@
         <v>5582143</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:K19" si="3">7*C4*C4</f>
+        <f t="shared" ref="C19" si="6">7*C4*C4</f>
         <v>15981847</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D19:K19" si="7">7*D4*D4</f>
         <v>29618743</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>46342303</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>67704700</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>90720000</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>114025072</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>143963575</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>180715927</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>210827008</v>
       </c>
     </row>
@@ -6997,39 +6997,39 @@
         <v>0.7127725004818547</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:K21" si="4">C18/C15</f>
+        <f t="shared" ref="C21" si="8">C18/C15</f>
         <v>0.76128465618771735</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D21:K21" si="9">D18/D15</f>
         <v>0.77230778166921066</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.74372870649408684</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.72308910879018284</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.71813083208892692</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.71178314169597456</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.72060651174552082</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.72187465612600699</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.72011142961520025</v>
       </c>
     </row>
@@ -7042,39 +7042,39 @@
         <v>0.95408086440041517</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:K22" si="5">C19/C7</f>
+        <f t="shared" ref="C22" si="10">C19/C7</f>
         <v>0.94871764581850271</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D22:K22" si="11">D19/D7</f>
         <v>0.92835456525194404</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.86111634339338161</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.81586355717219483</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.79882876487283649</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.78661033797456714</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.78973913950095398</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.78707364848782591</v>
       </c>
       <c r="K22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.78638333408542427</v>
       </c>
     </row>
